--- a/Project_218/TestData/Data.xlsx
+++ b/Project_218/TestData/Data.xlsx
@@ -4,18 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="util" sheetId="1" r:id="rId1"/>
     <sheet name="celltypes" sheetId="2" r:id="rId2"/>
+    <sheet name="multiplerows" sheetId="3" r:id="rId3"/>
+    <sheet name="mutiplecells" sheetId="4" r:id="rId4"/>
+    <sheet name="conditionaldata" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="51">
   <si>
     <t>Browser</t>
   </si>
@@ -54,6 +57,120 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Darshan1</t>
+  </si>
+  <si>
+    <t>Darsh1</t>
+  </si>
+  <si>
+    <t>Darshan2</t>
+  </si>
+  <si>
+    <t>Darsh2</t>
+  </si>
+  <si>
+    <t>Darshan3</t>
+  </si>
+  <si>
+    <t>Darsh3</t>
+  </si>
+  <si>
+    <t>Darshan4</t>
+  </si>
+  <si>
+    <t>Darsh4</t>
+  </si>
+  <si>
+    <t>Darshan5</t>
+  </si>
+  <si>
+    <t>Darsh5</t>
+  </si>
+  <si>
+    <t>Darshan6</t>
+  </si>
+  <si>
+    <t>Darsh6</t>
+  </si>
+  <si>
+    <t>Darshan7</t>
+  </si>
+  <si>
+    <t>Darsh7</t>
+  </si>
+  <si>
+    <t>Darshan8</t>
+  </si>
+  <si>
+    <t>Darsh8</t>
+  </si>
+  <si>
+    <t>Darshan9</t>
+  </si>
+  <si>
+    <t>Darsh9</t>
+  </si>
+  <si>
+    <t>Darshan10</t>
+  </si>
+  <si>
+    <t>Darsh10</t>
+  </si>
+  <si>
+    <t>Darshan11</t>
+  </si>
+  <si>
+    <t>Darsh11</t>
+  </si>
+  <si>
+    <t>Darshan12</t>
+  </si>
+  <si>
+    <t>Darsh12</t>
+  </si>
+  <si>
+    <t>Users</t>
+  </si>
+  <si>
+    <t>Anand</t>
+  </si>
+  <si>
+    <t>Aakash</t>
+  </si>
+  <si>
+    <t>Aravind</t>
+  </si>
+  <si>
+    <t>Anil</t>
+  </si>
+  <si>
+    <t>Amir</t>
+  </si>
+  <si>
+    <t>Ashok</t>
+  </si>
+  <si>
+    <t>Arjun</t>
+  </si>
+  <si>
+    <t>Balu</t>
+  </si>
+  <si>
+    <t>exestatus</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -421,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="A2:D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,7 +591,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,4 +630,333 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C2:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Project_218/TestData/Data.xlsx
+++ b/Project_218/TestData/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="11730" windowHeight="4935" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="util" sheetId="1" r:id="rId1"/>
@@ -804,7 +804,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C2:C10"/>
+      <selection sqref="A1:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
